--- a/Guru-Insurance Portal/3 - Design & Execution/3 - System Testing/TestCases.xlsx
+++ b/Guru-Insurance Portal/3 - Design & Execution/3 - System Testing/TestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru-Payment\2 - Design &amp; Execution\1 - Unit Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru-Insurance Portal\3 - Design &amp; Execution\3 - System Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96CA4F6-38DD-45C7-82C2-D67B117A3682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6387BF71-D548-4879-B41F-0F237AB028CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -124,13 +124,256 @@
   </si>
   <si>
     <t>V1</t>
+  </si>
+  <si>
+    <t>Request a quotation</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with valid data</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with no cover type</t>
+  </si>
+  <si>
+    <t>message displayed that say "quotation requested successfully" and quatation number with premium amount displayed</t>
+  </si>
+  <si>
+    <t>premium displayed and the amount is increased by 1%</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with road cover type</t>
+  </si>
+  <si>
+    <t>premium displayed and the amount is increased by 2%</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with at home cover type</t>
+  </si>
+  <si>
+    <t>premium displayed and the amount is increased by 3%</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with european cover type</t>
+  </si>
+  <si>
+    <t>premium displayed and the amount is increased by 4%</t>
+  </si>
+  <si>
+    <t>premium displayed and the amount is increased by 0 EURO</t>
+  </si>
+  <si>
+    <t>premium displayed and the amount is increased by 30 EURO</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with no windScreenRepair</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with windScreenRepair</t>
+  </si>
+  <si>
+    <t>Select from dropdown list</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with zero acciedents</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with number of  acciedents</t>
+  </si>
+  <si>
+    <t>premium displayed and the amount is decreased by 30%</t>
+  </si>
+  <si>
+    <t>premium displayed and the amount is not changed</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with number of  milage greater than 5001</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with number of  milage equal to 5000</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with number of  milage equal to 5001</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with number of  milage less than 5000</t>
+  </si>
+  <si>
+    <t>premium displayed and the amount is increased by 50 EURO</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with estimate value equal to 99</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with estimate value less than 99</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with estimate value equal to 100</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with estimate value greater than 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message displayed that say "not procesed" </t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with public parking</t>
+  </si>
+  <si>
+    <t>Validate Broker can Request a quotation with garage parking</t>
+  </si>
+  <si>
+    <t>Validate Broker can view premium amount without saving</t>
+  </si>
+  <si>
+    <t>message displayed with the amount of the premium</t>
+  </si>
+  <si>
+    <t>Retrieve quotation</t>
+  </si>
+  <si>
+    <t>Validate Broker can Retrieve quotation with valid data</t>
+  </si>
+  <si>
+    <t>Validate Broker can Retrieve quotation with invalid data</t>
+  </si>
+  <si>
+    <t>Validate Broker can Retrieve quotation with his own data</t>
+  </si>
+  <si>
+    <t>Validate Broker can Retrieve quotation with not owned  data</t>
+  </si>
+  <si>
+    <t>message displayed with the quotation info</t>
+  </si>
+  <si>
+    <t>message displayed that say" the qution number is not found"</t>
+  </si>
+  <si>
+    <t>TC_IS_001</t>
+  </si>
+  <si>
+    <t>TC_IS_002</t>
+  </si>
+  <si>
+    <t>TC_IS_003</t>
+  </si>
+  <si>
+    <t>TC_IS_004</t>
+  </si>
+  <si>
+    <t>TC_IS_005</t>
+  </si>
+  <si>
+    <t>TC_IS_006</t>
+  </si>
+  <si>
+    <t>TC_IS_007</t>
+  </si>
+  <si>
+    <t>TC_IS_008</t>
+  </si>
+  <si>
+    <t>TC_IS_009</t>
+  </si>
+  <si>
+    <t>TC_IS_010</t>
+  </si>
+  <si>
+    <t>TC_IS_011</t>
+  </si>
+  <si>
+    <t>TC_IS_012</t>
+  </si>
+  <si>
+    <t>TC_IS_013</t>
+  </si>
+  <si>
+    <t>TC_IS_014</t>
+  </si>
+  <si>
+    <t>TC_IS_015</t>
+  </si>
+  <si>
+    <t>TC_IS_016</t>
+  </si>
+  <si>
+    <t>TC_IS_017</t>
+  </si>
+  <si>
+    <t>TC_IS_018</t>
+  </si>
+  <si>
+    <t>TC_IS_019</t>
+  </si>
+  <si>
+    <t>TC_IS_020</t>
+  </si>
+  <si>
+    <t>TC_IS_021</t>
+  </si>
+  <si>
+    <t>TC_IS_022</t>
+  </si>
+  <si>
+    <t>TC_IS_023</t>
+  </si>
+  <si>
+    <t>TC_IS_024</t>
+  </si>
+  <si>
+    <t>TC_IS_025</t>
+  </si>
+  <si>
+    <t>TC_IS_026</t>
+  </si>
+  <si>
+    <t>Edit Profile</t>
+  </si>
+  <si>
+    <t>View Profile</t>
+  </si>
+  <si>
+    <t>Validate Broker can edit his profile</t>
+  </si>
+  <si>
+    <t>Validate Broker can view his profile</t>
+  </si>
+  <si>
+    <t>message displayed that say" account info updated"</t>
+  </si>
+  <si>
+    <t>message displayed with the profile info</t>
+  </si>
+  <si>
+    <t>1  - website opened
+2 - broker loged in
+3 - request page opened
+4 - info avaliable</t>
+  </si>
+  <si>
+    <t>1  - website opened
+2 - broker loged in
+3 - retrive page opened
+4 - info avaliable</t>
+  </si>
+  <si>
+    <t>1  - website opened
+2 - broker loged in
+3 - edit page opened
+4 - info avaliable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1  - website opened
+2 - broker loged in
+3 - view page opened
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +439,12 @@
       <color theme="1"/>
       <name val="Agency FB"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -400,7 +649,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,9 +659,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,15 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1162,7 +1399,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1171,7 +1408,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1470,7 +1707,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1479,7 +1716,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4232,7 +4469,7 @@
   <dimension ref="B1:R11"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:I6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4247,20 +4484,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="32.5" x14ac:dyDescent="0.65">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="H1" s="7" t="s">
+      <c r="C1" s="12"/>
+      <c r="H1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
@@ -4275,24 +4512,24 @@
         <v>9</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="N4" s="9" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="N4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4303,25 +4540,25 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="N5" s="9" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="N5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <f>IF(G4="New Customer",COUNTIF(#REF!,"*TC*"),IF(G4="Log",COUNTIF(#REF!,"*TC*"),IF(G4="Edit Customer",COUNTIF(#REF!,"*TC*"),0)))</f>
         <v>0</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <f>IF(G4="New Customer",COUNTIF(#REF!,"PASS"),IF(G4="Log",COUNTIF(#REF!,"PASS"),IF(G4="Edit Customer",COUNTIF(#REF!,"PASS"),0)))</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="8">
         <f>IF(G4="New Customer",COUNTIF(#REF!,"Fail"),IF(G4="Log",COUNTIF(#REF!,"Fail"),IF(G4="Edit Customer",COUNTIF(#REF!,"Fail"),0)))</f>
         <v>0</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <f>IF(G4="New Customer",COUNTIF(#REF!,"Not Executed"),IF(G4="Log",COUNTIF(#REF!,"Not Executed"),IF(G4="Edit Customer",COUNTIF(#REF!,"Not Executed"),0)))</f>
         <v>0</v>
       </c>
@@ -4331,24 +4568,24 @@
         <v>11</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="N6" s="9" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="N6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="8">
         <f>IF(G4="New Customer",COUNTIF(#REF!,"PASS"),0)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="8">
         <f>IF(G4="New Customer",COUNTIF(#REF!,"FAIL"),0)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="8">
         <f>IF(G4="New Customer",COUNTIF(#REF!,"Not Executed"),0)</f>
         <v>0</v>
       </c>
@@ -4357,9 +4594,9 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="e">
-        <f>SUM(COUNTIF(#REF!, "*TC*"),COUNTIF(#REF!, "*TC*"),COUNTIF(#REF!, "*TC*"),COUNTIF('V1'!A:A, "*TC*"),COUNTIF(#REF!, "*TC*"),COUNTIF(#REF!, "*TC*"))</f>
-        <v>#REF!</v>
+      <c r="C7" s="1">
+        <f>SUM(COUNTIF('V1'!A:H, "*TC*"))</f>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4384,9 +4621,9 @@
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="e">
-        <f>SUM(COUNTIF(#REF!,"not executed"),COUNTIF(#REF!,"not executed"),COUNTIF(#REF!,"not executed"),COUNTIF('V1'!A:J,"not executed"),COUNTIF(#REF!, "not executed"),COUNTIF(#REF!, "not executed"))</f>
-        <v>#REF!</v>
+      <c r="C10" s="1">
+        <f>SUM(COUNTIF('V1'!I:K,"not executed"))</f>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -4446,176 +4683,777 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D149986-1BEC-4EAD-BEB8-860585462811}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N1"/>
+    <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="130" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="14" width="50.6328125" style="4" customWidth="1"/>
     <col min="15" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
-    <row r="2" spans="1:14" ht="55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12" t="s">
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" ht="55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+    <row r="4" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
+    <row r="23" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" ht="130" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4623,7 +5461,8 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I2:I3">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="I2:I28">
     <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
@@ -4634,7 +5473,7 @@
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="I3:I28">
     <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
@@ -4656,7 +5495,7 @@
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="L2:L28">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
@@ -4667,7 +5506,7 @@
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
+  <conditionalFormatting sqref="L3:L28">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
@@ -4690,7 +5529,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 I3" xr:uid="{DF9BF969-6E47-47F0-AE8E-1764CDEDF07A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L28 I3:I28" xr:uid="{DF9BF969-6E47-47F0-AE8E-1764CDEDF07A}">
       <formula1>"Not Executed,PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Guru-Insurance Portal/3 - Design & Execution/3 - System Testing/TestCases.xlsx
+++ b/Guru-Insurance Portal/3 - Design & Execution/3 - System Testing/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru-Insurance Portal\3 - Design &amp; Execution\3 - System Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6387BF71-D548-4879-B41F-0F237AB028CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E104D7F3-D14D-415E-91D3-D7F9BC050377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -367,6 +367,40 @@
 2 - broker loged in
 3 - view page opened
 </t>
+  </si>
+  <si>
+    <t>Breakdowncover - roadside
+Windscreenrepair - NO
+Number Of Accidents - 1
+Registration Number - 2
+Total Mileage - 100
+Value - 110
+Parking - public
+start - 1/1/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Expected </t>
+  </si>
+  <si>
+    <t>number - 34025</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>message displayed that say" the qution number is wrong"</t>
+  </si>
+  <si>
+    <t>message displayed Premium: £NaN</t>
+  </si>
+  <si>
+    <t>Wrong calc,message displayed Premium: £400</t>
+  </si>
+  <si>
+    <t>Wrong calc,message displayed Premium: £300</t>
+  </si>
+  <si>
+    <t>Wrong calc,message displayed Premium: £200</t>
   </si>
 </sst>
 </file>
@@ -1402,13 +1436,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1710,13 +1744,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4468,8 +4502,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:R11"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4603,18 +4637,18 @@
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="e">
-        <f>SUM(COUNTIF(#REF!,"pass"),COUNTIF(#REF!,"pass"),COUNTIF(#REF!,"pass"),COUNTIF('V1'!A:J,"pass"))</f>
-        <v>#REF!</v>
+      <c r="C8" s="1">
+        <f>SUM(COUNTIF('V1'!I:K,"pass"))</f>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="e">
-        <f>SUM(COUNTIF(#REF!,"fail"),COUNTIF(#REF!,"fail"),COUNTIF(#REF!,"fail"),COUNTIF('V1'!A:J,"fail"))</f>
-        <v>#REF!</v>
+      <c r="C9" s="1">
+        <f>SUM(COUNTIF('V1'!I:K,"fail"))</f>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4623,7 +4657,7 @@
       </c>
       <c r="C10" s="1">
         <f>SUM(COUNTIF('V1'!I:K,"not executed"))</f>
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -4685,8 +4719,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="D2" zoomScale="26" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="130" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4761,7 +4795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="7" t="s">
         <v>70</v>
       </c>
@@ -4774,14 +4808,18 @@
       <c r="D3" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="I3" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="10"/>
@@ -4791,7 +4829,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -4805,9 +4843,11 @@
       <c r="G4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="I4" s="11" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="10"/>
@@ -4817,7 +4857,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
@@ -4831,9 +4871,11 @@
       <c r="G5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="I5" s="11" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="10"/>
@@ -4843,7 +4885,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>73</v>
       </c>
@@ -4857,9 +4899,11 @@
       <c r="G6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="I6" s="11" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="10"/>
@@ -4869,7 +4913,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>74</v>
       </c>
@@ -4883,9 +4927,11 @@
       <c r="G7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="I7" s="11" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="10"/>
@@ -4895,7 +4941,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>75</v>
       </c>
@@ -4913,7 +4959,7 @@
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="10"/>
@@ -4923,7 +4969,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>76</v>
       </c>
@@ -4939,7 +4985,7 @@
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="10"/>
@@ -4949,7 +4995,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>77</v>
       </c>
@@ -4965,7 +5011,7 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="10"/>
@@ -4975,7 +5021,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>78</v>
       </c>
@@ -4991,7 +5037,7 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="10"/>
@@ -5001,7 +5047,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>79</v>
       </c>
@@ -5017,7 +5063,7 @@
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="11" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="10"/>
@@ -5027,7 +5073,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>80</v>
       </c>
@@ -5043,7 +5089,7 @@
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="11" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="10"/>
@@ -5053,7 +5099,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>81</v>
       </c>
@@ -5069,7 +5115,7 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="11" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="10"/>
@@ -5079,7 +5125,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>82</v>
       </c>
@@ -5095,7 +5141,7 @@
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="11" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="10"/>
@@ -5105,7 +5151,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>83</v>
       </c>
@@ -5121,7 +5167,7 @@
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="10"/>
@@ -5131,7 +5177,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>84</v>
       </c>
@@ -5147,7 +5193,7 @@
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="10"/>
@@ -5157,7 +5203,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>85</v>
       </c>
@@ -5173,7 +5219,7 @@
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="10"/>
@@ -5183,7 +5229,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>86</v>
       </c>
@@ -5199,7 +5245,7 @@
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="10"/>
@@ -5209,7 +5255,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>87</v>
       </c>
@@ -5225,7 +5271,7 @@
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="11" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="10"/>
@@ -5235,7 +5281,7 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>88</v>
       </c>
@@ -5251,7 +5297,7 @@
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="10"/>
@@ -5261,7 +5307,7 @@
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>89</v>
       </c>
@@ -5277,7 +5323,7 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="10"/>
@@ -5287,7 +5333,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>90</v>
       </c>
@@ -5300,14 +5346,16 @@
       <c r="D23" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
         <v>68</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="10"/>
@@ -5317,7 +5365,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>91</v>
       </c>
@@ -5329,11 +5377,11 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="10"/>
@@ -5343,7 +5391,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
         <v>92</v>
       </c>
@@ -5359,7 +5407,7 @@
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="10"/>
@@ -5369,7 +5417,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>93</v>
       </c>
@@ -5385,7 +5433,7 @@
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="11" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="10"/>
@@ -5395,7 +5443,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="1:14" ht="130" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>94</v>
       </c>
@@ -5415,7 +5463,7 @@
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="11" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="10"/>
@@ -5425,7 +5473,7 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" ht="130" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="240" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>95</v>
       </c>
@@ -5445,7 +5493,7 @@
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="11" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="10"/>

--- a/Guru-Insurance Portal/3 - Design & Execution/3 - System Testing/TestCases.xlsx
+++ b/Guru-Insurance Portal/3 - Design & Execution/3 - System Testing/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru-Insurance Portal\3 - Design &amp; Execution\3 - System Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E104D7F3-D14D-415E-91D3-D7F9BC050377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36619907-245B-4D2E-8827-71853F9AD0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -401,6 +401,33 @@
   </si>
   <si>
     <t>Wrong calc,message displayed Premium: £200</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>TC_IS_027</t>
+  </si>
+  <si>
+    <t>Validate page labels that match the SRS</t>
+  </si>
+  <si>
+    <t>acciedent field label is not matching the srs</t>
   </si>
 </sst>
 </file>
@@ -1433,13 +1460,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1741,13 +1768,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2141,13 +2168,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2250,7 +2277,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4503,7 +4530,7 @@
   <dimension ref="B1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4581,19 +4608,19 @@
         <v>22</v>
       </c>
       <c r="O5" s="8">
-        <f>IF(G4="New Customer",COUNTIF(#REF!,"*TC*"),IF(G4="Log",COUNTIF(#REF!,"*TC*"),IF(G4="Edit Customer",COUNTIF(#REF!,"*TC*"),0)))</f>
-        <v>0</v>
+        <f>SUM(COUNTIF('V1'!A:A, "*TC*"))</f>
+        <v>27</v>
       </c>
       <c r="P5" s="8">
-        <f>IF(G4="New Customer",COUNTIF(#REF!,"PASS"),IF(G4="Log",COUNTIF(#REF!,"PASS"),IF(G4="Edit Customer",COUNTIF(#REF!,"PASS"),0)))</f>
-        <v>0</v>
+        <f>SUM(COUNTIF('V1'!I:K,"pass"))</f>
+        <v>14</v>
       </c>
       <c r="Q5" s="8">
-        <f>IF(G4="New Customer",COUNTIF(#REF!,"Fail"),IF(G4="Log",COUNTIF(#REF!,"Fail"),IF(G4="Edit Customer",COUNTIF(#REF!,"Fail"),0)))</f>
-        <v>0</v>
+        <f>SUM(COUNTIF('V1'!I:K,"fail"))</f>
+        <v>13</v>
       </c>
       <c r="R5" s="8">
-        <f>IF(G4="New Customer",COUNTIF(#REF!,"Not Executed"),IF(G4="Log",COUNTIF(#REF!,"Not Executed"),IF(G4="Edit Customer",COUNTIF(#REF!,"Not Executed"),0)))</f>
+        <f>SUM(COUNTIF('V1'!I:K,"not executed"))</f>
         <v>0</v>
       </c>
     </row>
@@ -4612,16 +4639,16 @@
         <v>14</v>
       </c>
       <c r="P6" s="8">
-        <f>IF(G4="New Customer",COUNTIF(#REF!,"PASS"),0)</f>
+        <f>IF(G4="V1",COUNTIF('V1'!L:L,"PASS"),0)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="8">
-        <f>IF(G4="New Customer",COUNTIF(#REF!,"FAIL"),0)</f>
+        <f>IF(G4="V1",COUNTIF('V1'!L:L,"FAIL"),0)</f>
         <v>0</v>
       </c>
       <c r="R6" s="8">
-        <f>IF(G4="New Customer",COUNTIF(#REF!,"Not Executed"),0)</f>
-        <v>0</v>
+        <f>IF(G4="V1",COUNTIF('V1'!L:L,"Not Executed"),0)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4629,8 +4656,8 @@
         <v>15</v>
       </c>
       <c r="C7" s="1">
-        <f>SUM(COUNTIF('V1'!A:H, "*TC*"))</f>
-        <v>26</v>
+        <f>SUM(COUNTIF('V1'!A:A, "*TC*"))</f>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4648,7 +4675,7 @@
       </c>
       <c r="C9" s="1">
         <f>SUM(COUNTIF('V1'!I:K,"fail"))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4717,10 +4744,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D149986-1BEC-4EAD-BEB8-860585462811}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="26" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26:I28"/>
+    <sheetView zoomScale="13" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="130" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5337,25 +5364,19 @@
       <c r="A23" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>108</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="I23" s="11" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="10"/>
@@ -5369,15 +5390,21 @@
       <c r="A24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="C24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="11" t="s">
@@ -5397,13 +5424,13 @@
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="11" t="s">
@@ -5423,17 +5450,17 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="11" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="10"/>
@@ -5447,19 +5474,15 @@
       <c r="A27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>104</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="11" t="s">
@@ -5473,23 +5496,23 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" ht="240" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="240" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="11" t="s">
@@ -5502,6 +5525,36 @@
       </c>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="1:14" ht="240" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5510,7 +5563,7 @@
     <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="I2:I28">
+  <conditionalFormatting sqref="I2:I29">
     <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
@@ -5521,7 +5574,7 @@
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I28">
+  <conditionalFormatting sqref="I3:I29">
     <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
@@ -5543,7 +5596,7 @@
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L28">
+  <conditionalFormatting sqref="L2:L29">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
@@ -5554,7 +5607,7 @@
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L28">
+  <conditionalFormatting sqref="L3:L29">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
@@ -5577,7 +5630,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L28 I3:I28" xr:uid="{DF9BF969-6E47-47F0-AE8E-1764CDEDF07A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I29 L3:L29" xr:uid="{DF9BF969-6E47-47F0-AE8E-1764CDEDF07A}">
       <formula1>"Not Executed,PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
